--- a/Spatial/RANOVA_Number_of_PCs_multcompare_15.xlsx
+++ b/Spatial/RANOVA_Number_of_PCs_multcompare_15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7795050D-232B-4783-9824-A3E2C2CAA9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF557F8E-E42E-4E79-8651-D673BC2C4C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{742B2F93-36BC-4052-81AC-37B2D550250E}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{742B2F93-36BC-4052-81AC-37B2D550250E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,16 +414,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -460,22 +461,22 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>-1.4974215444800445</v>
+        <v>-1.5287044267979306</v>
       </c>
       <c r="E2">
-        <v>0.98250185933133272</v>
+        <v>1.3336510634936596</v>
       </c>
       <c r="F2">
-        <v>0.15570636141063054</v>
+        <v>0.27601313453968634</v>
       </c>
       <c r="G2">
-        <v>-3.6598935566307498</v>
+        <v>-4.4640506262879072</v>
       </c>
       <c r="H2">
-        <v>0.66505046767066101</v>
+        <v>1.4066417726920455</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -486,22 +487,22 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.4974215444800445</v>
+        <v>1.5287044267979306</v>
       </c>
       <c r="E3">
-        <v>0.98250185933133272</v>
+        <v>1.3336510634936596</v>
       </c>
       <c r="F3">
-        <v>0.15570636141063054</v>
+        <v>0.27601313453968634</v>
       </c>
       <c r="G3">
-        <v>-0.66505046767066101</v>
+        <v>-1.4066417726920455</v>
       </c>
       <c r="H3">
-        <v>3.6598935566307498</v>
+        <v>4.4640506262879072</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -512,22 +513,22 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>-1.3740566223773034</v>
+        <v>-6.1818766975406083</v>
       </c>
       <c r="E4">
-        <v>1.2319220091094314</v>
+        <v>3.3485036841654994</v>
       </c>
       <c r="F4">
-        <v>0.28846357164094683</v>
+        <v>9.1928871614991178E-2</v>
       </c>
       <c r="G4">
-        <v>-4.0854986828174376</v>
+        <v>-13.551883614901051</v>
       </c>
       <c r="H4">
-        <v>1.3373854380628312</v>
+        <v>1.1881302198198345</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -538,22 +539,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.3740566223773034</v>
+        <v>6.1818766975406083</v>
       </c>
       <c r="E5">
-        <v>1.2319220091094314</v>
+        <v>3.3485036841654994</v>
       </c>
       <c r="F5">
-        <v>0.28846357164094683</v>
+        <v>9.1928871614991178E-2</v>
       </c>
       <c r="G5">
-        <v>-1.3373854380628312</v>
+        <v>-1.1881302198198345</v>
       </c>
       <c r="H5">
-        <v>4.0854986828174376</v>
+        <v>13.551883614901051</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -564,22 +565,22 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>-1.3500845782660151</v>
+        <v>-6.5180752798938899</v>
       </c>
       <c r="E6">
-        <v>1.5899257579958495</v>
+        <v>2.9994698652679621</v>
       </c>
       <c r="F6">
-        <v>0.41389655882944842</v>
+        <v>5.2494998104045273E-2</v>
       </c>
       <c r="G6">
-        <v>-4.8494875772623294</v>
+        <v>-13.11986394149074</v>
       </c>
       <c r="H6">
-        <v>2.1493184207302987</v>
+        <v>8.3713381702960277E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -590,19 +591,19 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1.3500845782660151</v>
+        <v>6.5180752798938899</v>
       </c>
       <c r="E7">
-        <v>1.5899257579958495</v>
+        <v>2.9994698652679621</v>
       </c>
       <c r="F7">
-        <v>0.41389655882944842</v>
+        <v>5.2494998104045273E-2</v>
       </c>
       <c r="G7">
-        <v>-2.1493184207302987</v>
+        <v>-8.3713381702960277E-2</v>
       </c>
       <c r="H7">
-        <v>4.8494875772623294</v>
+        <v>13.11986394149074</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -628,7 +629,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Spatial/RANOVA_Number_of_PCs_multcompare_15.xlsx
+++ b/Spatial/RANOVA_Number_of_PCs_multcompare_15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF557F8E-E42E-4E79-8651-D673BC2C4C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77FA8F55-12B5-4349-B83B-1911F6081267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{742B2F93-36BC-4052-81AC-37B2D550250E}"/>
   </bookViews>
@@ -461,19 +461,19 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>-1.5287044267979306</v>
+        <v>-1.4586876905612605</v>
       </c>
       <c r="E2">
-        <v>1.3336510634936596</v>
+        <v>1.3896055876522277</v>
       </c>
       <c r="F2">
-        <v>0.27601313453968634</v>
+        <v>0.31636553560487701</v>
       </c>
       <c r="G2">
-        <v>-4.4640506262879072</v>
+        <v>-4.517188967364234</v>
       </c>
       <c r="H2">
-        <v>1.4066417726920455</v>
+        <v>1.5998135862417131</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -487,19 +487,19 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.5287044267979306</v>
+        <v>1.4586876905612605</v>
       </c>
       <c r="E3">
-        <v>1.3336510634936596</v>
+        <v>1.3896055876522277</v>
       </c>
       <c r="F3">
-        <v>0.27601313453968634</v>
+        <v>0.31636553560487701</v>
       </c>
       <c r="G3">
-        <v>-1.4066417726920455</v>
+        <v>-1.5998135862417131</v>
       </c>
       <c r="H3">
-        <v>4.4640506262879072</v>
+        <v>4.517188967364234</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -513,19 +513,19 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>-6.1818766975406083</v>
+        <v>-6.0437506907535132</v>
       </c>
       <c r="E4">
-        <v>3.3485036841654994</v>
+        <v>3.3782971745702168</v>
       </c>
       <c r="F4">
-        <v>9.1928871614991178E-2</v>
+        <v>0.10115525277766398</v>
       </c>
       <c r="G4">
-        <v>-13.551883614901051</v>
+        <v>-13.47933263836207</v>
       </c>
       <c r="H4">
-        <v>1.1881302198198345</v>
+        <v>1.3918312568550446</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -539,19 +539,19 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6.1818766975406083</v>
+        <v>6.0437506907535132</v>
       </c>
       <c r="E5">
-        <v>3.3485036841654994</v>
+        <v>3.3782971745702168</v>
       </c>
       <c r="F5">
-        <v>9.1928871614991178E-2</v>
+        <v>0.10115525277766398</v>
       </c>
       <c r="G5">
-        <v>-1.1881302198198345</v>
+        <v>-1.3918312568550446</v>
       </c>
       <c r="H5">
-        <v>13.551883614901051</v>
+        <v>13.47933263836207</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -565,19 +565,19 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>-6.5180752798938899</v>
+        <v>-6.174494849072147</v>
       </c>
       <c r="E6">
-        <v>2.9994698652679621</v>
+        <v>3.0702121706669674</v>
       </c>
       <c r="F6">
-        <v>5.2494998104045273E-2</v>
+        <v>6.9469669349231752E-2</v>
       </c>
       <c r="G6">
-        <v>-13.11986394149074</v>
+        <v>-12.931986275042878</v>
       </c>
       <c r="H6">
-        <v>8.3713381702960277E-2</v>
+        <v>0.58299657689858453</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -591,19 +591,19 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>6.5180752798938899</v>
+        <v>6.174494849072147</v>
       </c>
       <c r="E7">
-        <v>2.9994698652679621</v>
+        <v>3.0702121706669674</v>
       </c>
       <c r="F7">
-        <v>5.2494998104045273E-2</v>
+        <v>6.9469669349231752E-2</v>
       </c>
       <c r="G7">
-        <v>-8.3713381702960277E-2</v>
+        <v>-0.58299657689858453</v>
       </c>
       <c r="H7">
-        <v>13.11986394149074</v>
+        <v>12.931986275042878</v>
       </c>
     </row>
   </sheetData>
